--- a/combined_model_sampling_comparison_updated.xlsx
+++ b/combined_model_sampling_comparison_updated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1341,6 +1341,152 @@
         <v>0.7962</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Tuned Random Forest (top_features2)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>0.6697</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.6974</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6802</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.6974</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.7137</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Tuned Random Forest (top_features2)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Normalization</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.6697</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.6974</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6802</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.6974</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8741</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.7148</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Tuned Random Forest (top_features2)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Oversampling</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.6715</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.6645</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.6673</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.6645</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.8545</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.6858</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Tuned Random Forest (top_features2)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Undersampling</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.6755</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5526</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5958</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.5526</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.8488</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.7029</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tuned Random Forest (top_features2)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.6753</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.6447000000000001</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6589</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.6447000000000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.8721</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.7174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/combined_model_sampling_comparison_updated.xlsx
+++ b/combined_model_sampling_comparison_updated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,19 +483,19 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.7604</v>
+        <v>0.7709</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7829</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7644</v>
+        <v>0.7754</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7829</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9378</v>
+        <v>0.9357</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7604</v>
+        <v>0.7749</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7895</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7644</v>
+        <v>0.7801</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7895</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9383</v>
+        <v>0.9351</v>
       </c>
       <c r="H3" t="inlineStr"/>
     </row>
@@ -539,19 +539,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7703</v>
+        <v>0.8043</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.8026</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7698</v>
+        <v>0.8028999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.8026</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9335</v>
+        <v>0.9379</v>
       </c>
       <c r="H4" t="inlineStr"/>
     </row>
@@ -567,19 +567,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7866</v>
+        <v>0.7933</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6645</v>
+        <v>0.6776</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6752</v>
+        <v>0.6916</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6645</v>
+        <v>0.6776</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9258999999999999</v>
+        <v>0.9239000000000001</v>
       </c>
       <c r="H5" t="inlineStr"/>
     </row>
@@ -595,19 +595,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7724</v>
+        <v>0.7692</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7302999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7443</v>
+        <v>0.758</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7302999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.9366</v>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
@@ -619,22 +619,22 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>0.775</v>
+        <v>0.7803</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7895</v>
+        <v>0.7961</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7786999999999999</v>
+        <v>0.7842</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7895</v>
+        <v>0.7961</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9162</v>
+        <v>0.9173</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7748</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="8">
@@ -661,10 +661,10 @@
         <v>0.7829</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9136</v>
+        <v>0.9146</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7641</v>
+        <v>0.7605</v>
       </c>
     </row>
     <row r="9">
@@ -679,22 +679,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8023</v>
+        <v>0.8028</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7105</v>
+        <v>0.7171</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7266</v>
+        <v>0.7321</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7105</v>
+        <v>0.7171</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9127</v>
+        <v>0.915</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7689</v>
+        <v>0.7687</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8188</v>
+        <v>0.7972</v>
       </c>
       <c r="D10" t="n">
         <v>0.7105</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7289</v>
+        <v>0.7256</v>
       </c>
       <c r="F10" t="n">
         <v>0.7105</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8984</v>
+        <v>0.9036</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7509</v>
+        <v>0.7521</v>
       </c>
     </row>
     <row r="11">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8013</v>
+        <v>0.8202</v>
       </c>
       <c r="D11" t="n">
-        <v>0.75</v>
+        <v>0.7368</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7641</v>
+        <v>0.7546</v>
       </c>
       <c r="F11" t="n">
-        <v>0.75</v>
+        <v>0.7368</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9107</v>
+        <v>0.9091</v>
       </c>
       <c r="H11" t="n">
-        <v>0.773</v>
+        <v>0.7723</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>0.7497</v>
+        <v>0.7696</v>
       </c>
       <c r="D12" t="n">
-        <v>0.75</v>
+        <v>0.7632</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7494</v>
+        <v>0.766</v>
       </c>
       <c r="F12" t="n">
-        <v>0.75</v>
+        <v>0.7632</v>
       </c>
       <c r="G12" t="n">
-        <v>0.924</v>
+        <v>0.9187</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7739</v>
+        <v>0.7618</v>
       </c>
     </row>
     <row r="13">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7497</v>
+        <v>0.7696</v>
       </c>
       <c r="D13" t="n">
-        <v>0.75</v>
+        <v>0.7632</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7494</v>
+        <v>0.766</v>
       </c>
       <c r="F13" t="n">
-        <v>0.75</v>
+        <v>0.7632</v>
       </c>
       <c r="G13" t="n">
-        <v>0.924</v>
+        <v>0.9187</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7739</v>
+        <v>0.7618</v>
       </c>
     </row>
     <row r="14">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7317</v>
+        <v>0.7673</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7368</v>
+        <v>0.75</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7336</v>
+        <v>0.7569</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7368</v>
+        <v>0.75</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9192</v>
+        <v>0.9179</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7662</v>
+        <v>0.7655</v>
       </c>
     </row>
     <row r="15">
@@ -855,22 +855,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7187</v>
+        <v>0.7154</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6316000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6481</v>
+        <v>0.6468</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6316000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8818</v>
+        <v>0.8822</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7098</v>
+        <v>0.7109</v>
       </c>
     </row>
     <row r="16">
@@ -885,22 +885,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.7339</v>
+        <v>0.7618</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7105</v>
+        <v>0.75</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7205</v>
+        <v>0.7553</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7105</v>
+        <v>0.75</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9182</v>
+        <v>0.9267</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7673</v>
+        <v>0.7625</v>
       </c>
     </row>
     <row r="17">
@@ -911,22 +911,22 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>0.7723</v>
+        <v>0.7922</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7829</v>
+        <v>0.8092</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7764</v>
+        <v>0.798</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7829</v>
+        <v>0.8092</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9423</v>
+        <v>0.9426</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8052</v>
+        <v>0.8056</v>
       </c>
     </row>
     <row r="18">
@@ -941,22 +941,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.7737000000000001</v>
+        <v>0.7922</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7895</v>
+        <v>0.8092</v>
       </c>
       <c r="E18" t="n">
-        <v>0.779</v>
+        <v>0.798</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7895</v>
+        <v>0.8092</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9419</v>
+        <v>0.9416</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8047</v>
+        <v>0.8043</v>
       </c>
     </row>
     <row r="19">
@@ -971,22 +971,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.7894</v>
+        <v>0.8055</v>
       </c>
       <c r="D19" t="n">
         <v>0.7763</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7822</v>
+        <v>0.7876</v>
       </c>
       <c r="F19" t="n">
         <v>0.7763</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9394</v>
+        <v>0.9419</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8078</v>
+        <v>0.8134</v>
       </c>
     </row>
     <row r="20">
@@ -1001,22 +1001,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.769</v>
+        <v>0.7905</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6711</v>
+        <v>0.7039</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6808999999999999</v>
+        <v>0.7163</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6711</v>
+        <v>0.7039</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9225</v>
+        <v>0.9245</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7731</v>
+        <v>0.7828000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -1031,19 +1031,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.7934</v>
+        <v>0.7844</v>
       </c>
       <c r="D21" t="n">
         <v>0.7368</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7553</v>
+        <v>0.7538</v>
       </c>
       <c r="F21" t="n">
         <v>0.7368</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.9368</v>
       </c>
       <c r="H21" t="n">
         <v>0.8014</v>
@@ -1057,22 +1057,22 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>0.4727</v>
+        <v>0.5654</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4737</v>
+        <v>0.5592</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4722</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4737</v>
+        <v>0.5592</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6833</v>
+        <v>0.7667</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4968</v>
+        <v>0.5673</v>
       </c>
     </row>
     <row r="23">
@@ -1087,22 +1087,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.7156</v>
+        <v>0.7206</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6974</v>
+        <v>0.7039</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7038</v>
+        <v>0.7059</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6974</v>
+        <v>0.7039</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8613</v>
+        <v>0.8793</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6942</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="24">
@@ -1117,22 +1117,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.4936</v>
+        <v>0.553</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3947</v>
+        <v>0.4342</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4312</v>
+        <v>0.4777</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3947</v>
+        <v>0.4342</v>
       </c>
       <c r="G24" t="n">
-        <v>0.643</v>
+        <v>0.7039</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4852</v>
+        <v>0.5185999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.4393</v>
+        <v>0.4464</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2697</v>
+        <v>0.2763</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2979</v>
+        <v>0.3166</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2697</v>
+        <v>0.2763</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5846</v>
+        <v>0.6524</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4006</v>
+        <v>0.4623</v>
       </c>
     </row>
     <row r="26">
@@ -1177,22 +1177,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5358000000000001</v>
+        <v>0.5643</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4079</v>
+        <v>0.4605</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4473</v>
+        <v>0.4985</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4079</v>
+        <v>0.4605</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6578000000000001</v>
+        <v>0.727</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4865</v>
+        <v>0.5394</v>
       </c>
     </row>
     <row r="27">
@@ -1203,22 +1203,22 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>0.7604</v>
+        <v>0.7543</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7566000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7644</v>
+        <v>0.7465000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7566000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9378</v>
+        <v>0.9282</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7836</v>
+        <v>0.7662</v>
       </c>
     </row>
     <row r="28">
@@ -1233,22 +1233,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.7604</v>
+        <v>0.7543</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7566000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7644</v>
+        <v>0.7465000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7566000000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9383</v>
+        <v>0.9288</v>
       </c>
       <c r="H28" t="n">
-        <v>0.784</v>
+        <v>0.7685999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1263,22 +1263,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.7703</v>
+        <v>0.7573</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7632</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7698</v>
+        <v>0.7586000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7632</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9335</v>
+        <v>0.9144</v>
       </c>
       <c r="H29" t="n">
-        <v>0.7915</v>
+        <v>0.7441</v>
       </c>
     </row>
     <row r="30">
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.7645999999999999</v>
+        <v>0.7034</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6513</v>
+        <v>0.6579</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6639</v>
+        <v>0.6632</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6513</v>
+        <v>0.6579</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9283</v>
+        <v>0.9125</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7792</v>
+        <v>0.7371</v>
       </c>
     </row>
     <row r="31">
@@ -1323,168 +1323,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.7901</v>
+        <v>0.7050999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7566000000000001</v>
+        <v>0.7039</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7689</v>
+        <v>0.7045</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7566000000000001</v>
+        <v>0.7039</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9353</v>
+        <v>0.9164</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7962</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Tuned Random Forest (top_features2)</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
-        <v>0.6697</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.6974</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.6802</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.6974</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.873</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.7137</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Tuned Random Forest (top_features2)</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Normalization</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0.6697</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.6974</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.6802</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.6974</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.8741</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.7148</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Tuned Random Forest (top_features2)</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Oversampling</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0.6715</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.6645</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.6673</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.6645</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.8545</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.6858</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Tuned Random Forest (top_features2)</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Undersampling</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0.6755</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.5526</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.5958</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.5526</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.8488</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.7029</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Tuned Random Forest (top_features2)</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>SMOTE</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0.6753</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.6447000000000001</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.6589</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.6447000000000001</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.8721</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.7174</v>
+        <v>0.7429</v>
       </c>
     </row>
   </sheetData>
